--- a/Employee_Reports29/Peter Nganga Kamau Q0593.xlsx
+++ b/Employee_Reports29/Peter Nganga Kamau Q0593.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,7 +78,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +463,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -568,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -617,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -666,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -715,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -764,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -813,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -862,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -911,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -960,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1009,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1058,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1086,8 +1090,10 @@
           <t>IMS</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
-        <v/>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
@@ -1105,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1142,11 +1148,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1170,8 +1176,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
-        <v/>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-003</t>
+        </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
@@ -1189,11 +1197,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1217,8 +1225,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
-        <v/>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
@@ -1236,11 +1246,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1264,8 +1274,10 @@
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
-        <v/>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-010</t>
+        </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
@@ -1283,11 +1295,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1303,36 +1315,134 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2025</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>14-Sep-2026</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>361</v>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
           <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
+      <c r="E21" s="3" t="inlineStr"/>
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>31-Aug-2025</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>31-Aug-2026</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
-        <v>348</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>16-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="H21" s="3" t="n">
+        <v>347</v>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
